--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBEA5E8-5EFE-4569-B4CF-31F34290031B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F792DC31-90E2-4D68-9CAA-D2CAC5AE10CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>123123”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得线索：王大福？撞坏了小学校门？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +490,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -565,6 +573,9 @@
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
       <c r="D6">
         <v>0</v>
       </c>
@@ -662,7 +673,10 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D12">
         <v>0</v>

--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F792DC31-90E2-4D68-9CAA-D2CAC5AE10CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0674436-E933-4CB4-8744-1EA9863086A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="3210" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,18 +53,6 @@
   </si>
   <si>
     <t>就是你，你就是新来的调解员？</t>
-  </si>
-  <si>
-    <t>Enum.RoldAnimType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>来得正是时候，春风小学的大门被撞了，你来帮忙打这个电话问问情况吧！</t>
@@ -131,15 +119,7 @@
     <t>“走，去村里看看有没有其他人知道详情吧？”</t>
   </si>
   <si>
-    <t>LTQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123123”</t>
+    <t>#next</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,7 +127,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得线索：王大福？撞坏了小学校门？</t>
+    <t>#next 获得线索，王大福？撞坏了小学校门？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sceneId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这不是咱们村的大学生吗……这边是新面孔阿，哪位？来干嘛的。</t>
+  </si>
+  <si>
+    <t>（出示证件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们来了解一下关于春风小学校门被撞坏的事情，希望你能配合</t>
+  </si>
+  <si>
+    <t>校门……？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我怎么知道……</t>
+  </si>
+  <si>
+    <t>你出来干什么，净添乱！</t>
+  </si>
+  <si>
+    <t>别激动，有话好好说。</t>
+  </si>
+  <si>
+    <t>#next 小秦恐惧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们的电动车坏了？</t>
+  </si>
+  <si>
+    <t>（摇头）</t>
+  </si>
+  <si>
+    <r>
+      <t>你问她有什么用</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秦晓雯！叫你不要出来丢人现眼，跑出来干什么！</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+  </si>
+  <si>
+    <t>王大福你别太过分了！</t>
+  </si>
+  <si>
+    <r>
+      <t>她是我</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>媳妇，不管事的……靠我养着还弄坏我的电动车！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想起来就生气，真是个衰神！</t>
+  </si>
+  <si>
+    <t>sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！</t>
+  </si>
+  <si>
+    <t>……</t>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L,-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L,-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（小声说）这位就是老李，李仲阳，他就住隔壁……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#wait,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +311,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,9 +356,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,7 +652,7 @@
     <col min="3" max="3" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -512,10 +666,16 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -529,10 +689,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -543,13 +709,16 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -557,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -574,16 +743,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -591,16 +763,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -608,33 +783,33 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -642,16 +817,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -659,38 +834,38 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
@@ -699,7 +874,27 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -710,15 +905,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FE645-8355-4966-BC3F-7DFF5D3538F9}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="35" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -732,191 +930,374 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1123123</v>
-      </c>
-      <c r="C4" s="1">
-        <v>123123</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>123123</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>1231</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1312311</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0674436-E933-4CB4-8744-1EA9863086A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276DEEB2-E546-4AF1-B6FA-E9D0A653E0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="3210" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="3210" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dialog" sheetId="1" r:id="rId1"/>
+    <sheet name="Dialog0" sheetId="1" r:id="rId1"/>
     <sheet name="Dialog1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +124,6 @@
   </si>
   <si>
     <t>#stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#next 获得线索，王大福？撞坏了小学校门？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -255,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R,-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L,-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,7 +267,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#wait,0.5</t>
+    <t>L,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#clearRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xibu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你做个人吧，平常</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天天骂秦晓雯</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就算了，还想要动手打人？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真不是个东西！那校门就是你开电瓶车撞的吧！</t>
+  </si>
+  <si>
+    <t>#tip 获得线索，王大福？撞坏了小学校门？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#next </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tip 获得线索，王大福天天骂秦晓雯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我电瓶车很早就给这娘们撞坏了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！你少在这栽赃啊我警告你，你不知道就少说话！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>得了！那你昨晚上喝酒是飞过来的</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你看看你</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现在心虚的这个样</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，我们多少年了我还不认识你？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一看就是你干的，你还把脏水泼到你老婆身上，真不是个东西！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>少掺和我的事！别在这多管别人的家事！我看你是单身久了眼巴巴别人老婆！</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+  </si>
+  <si>
+    <t>S,1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再吵下去可不成了，你们两个先分开，我后续通知谈话，我们一定会把事情弄清楚的。</t>
+  </si>
+  <si>
+    <t>#tip 王大福在于李仲阳对峙时心虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#wait 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#event 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#event 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#wait 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#event 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +451,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +502,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -641,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -666,13 +850,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -712,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -749,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -769,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -868,13 +1052,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -885,15 +1069,32 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>0</v>
       </c>
     </row>
@@ -905,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FE645-8355-4966-BC3F-7DFF5D3538F9}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -930,13 +1131,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -970,13 +1171,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -990,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1007,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1024,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1041,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1058,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1075,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1092,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1109,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1132,35 +1333,41 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1170,28 +1377,43 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
       <c r="B18">
         <v>4</v>
       </c>
@@ -1202,55 +1424,79 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
       <c r="B22">
         <v>3</v>
       </c>
@@ -1261,21 +1507,33 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
       <c r="B24">
         <v>3</v>
       </c>
@@ -1286,18 +1544,439 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>43</v>
       </c>
-      <c r="D25">
-        <v>2</v>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276DEEB2-E546-4AF1-B6FA-E9D0A653E0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFD603B-5CF7-46E9-A54A-AA9D61F0B2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3570" yWindow="3210" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L,-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,6 +440,10 @@
   </si>
   <si>
     <t>#event 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,7 +828,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -933,10 +933,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -953,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1052,13 +1055,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1072,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1108,7 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FE645-8355-4966-BC3F-7DFF5D3538F9}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
@@ -1177,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1333,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1353,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1424,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1444,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1467,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1487,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1507,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1521,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1544,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1558,7 +1561,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1575,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1592,13 +1595,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
         <v>41</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1618,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1638,13 +1641,13 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1661,7 +1664,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1675,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1692,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1701,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1712,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1729,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1746,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1763,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1780,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1797,7 +1800,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1814,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1831,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1848,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1865,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1899,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1916,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1939,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1953,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1970,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48">
         <v>1</v>

--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFD603B-5CF7-46E9-A54A-AA9D61F0B2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F1A8A0-3E78-4AE3-A5AD-447B327FAD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3570" yWindow="3210" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,23 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>少掺和我的事！别在这多管别人的家事！我看你是单身久了眼巴巴别人老婆！</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-  </si>
-  <si>
     <t>S,1.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,23 +410,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#event 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#event 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#wait 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#event 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
+    <t>#event1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#event2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#event11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#event12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#event13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少掺和我的事！别在这多管别人的家事！我看你是单身久了眼巴巴别人老婆！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -825,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -924,22 +915,16 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
       <c r="F6">
         <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -947,16 +932,16 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -970,10 +955,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -984,10 +972,10 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -996,15 +984,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1013,15 +1001,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1030,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1038,7 +1026,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1047,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1055,13 +1043,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1072,10 +1057,10 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1089,15 +1074,55 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>13</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17">
         <v>0</v>
       </c>
     </row>
@@ -1111,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FE645-8355-4966-BC3F-7DFF5D3538F9}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1524,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1561,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1678,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1695,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1715,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1834,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1868,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1902,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1919,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1942,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1956,7 +1981,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1973,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48">
         <v>1</v>

--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F1A8A0-3E78-4AE3-A5AD-447B327FAD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D371EF74-F092-4056-A185-212474272FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="3210" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog0" sheetId="1" r:id="rId1"/>
     <sheet name="Dialog1" sheetId="2" r:id="rId2"/>
+    <sheet name="Dialog2" sheetId="3" r:id="rId3"/>
+    <sheet name="Dialog3" sheetId="4" r:id="rId4"/>
+    <sheet name="Dialog4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="86">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,9 +117,6 @@
   </si>
   <si>
     <t>“别说是我给你讲的，是王大福干的，昨晚上我们一起喝了酒，保准是他！”</t>
-  </si>
-  <si>
-    <t>“走，去村里看看有没有其他人知道详情吧？”</t>
   </si>
   <si>
     <t>#next</t>
@@ -251,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S,0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,10 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#wait 0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#wait 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,6 +427,180 @@
   </si>
   <si>
     <t>少掺和我的事！别在这多管别人的家事！我看你是单身久了眼巴巴别人老婆！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走，去村里看看有没有其他人知道详情吧？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（拄着拐杖咳嗽）哎哟喂...现在的年轻人...追老太婆比赶集抢鸡蛋还狠…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（擦汗动作）婆婆，小学那边到底出什么事了？</t>
+  </si>
+  <si>
+    <t>昨儿半夜两点多，我风湿疼起来贴膏药，就听见...</t>
+  </si>
+  <si>
+    <t>（警惕张望）你瞅见村口那棵歪脖子枣树没？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接着就哐当一声——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（压低声音）王大福那破货车突突响得跟犯痨病似的，还有个尖嗓子喊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这路虎标的货你也敢乱停！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到人脸了吗？</t>
+  </si>
+  <si>
+    <t>上个月他媳妇往娘家运年猪，车厢板就是这么给压塌的...</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（拍大腿）黑灯瞎火的！不过那声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你要不吃那么胖我就能开稳了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绝对是大福的口头禅！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#wait 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#wait 0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tip 获得线索，又是王大福，还有另外的人?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好平静，似乎没有人在家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去别的地方看看吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这是走到哪来了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>还是去其他地方看看吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没人在家…...</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +676,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -531,11 +717,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -818,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -841,13 +1033,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -887,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -918,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -935,13 +1127,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -961,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -992,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1009,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1077,13 +1269,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1097,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1114,13 +1306,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1136,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FE645-8355-4966-BC3F-7DFF5D3538F9}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1159,13 +1351,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1199,13 +1391,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1219,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1236,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1253,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1270,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1287,7 +1479,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1304,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1321,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1338,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1355,13 +1547,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1375,13 +1567,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1395,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1412,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1429,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1446,13 +1638,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1466,19 +1658,19 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1489,13 +1681,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1509,13 +1701,13 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1529,13 +1721,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1549,7 +1741,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1566,13 +1758,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1586,7 +1778,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1603,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1620,13 +1812,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1640,13 +1832,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1660,19 +1852,19 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1683,13 +1875,13 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1703,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1720,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1729,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1740,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1757,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1774,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1791,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1808,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1825,7 +2017,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1842,7 +2034,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1859,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1876,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1893,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1910,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1927,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1944,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1961,13 +2153,13 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1981,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1998,13 +2190,575 @@
         <v>0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="F48">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965FBCB6-0369-4743-93F2-A369BDC4318D}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="40.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6262AC3C-F5DE-4C87-AE60-B168AF74562B}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049CD3FE-F869-4CEE-A69D-89319946C4AD}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D371EF74-F092-4056-A185-212474272FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CBCBBC-C7E8-43F7-A232-2D1B1FF06B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog0" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="87">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -601,6 +601,10 @@
   </si>
   <si>
     <t>没人在家…...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1326,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FE645-8355-4966-BC3F-7DFF5D3538F9}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1459,13 +1463,16 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1479,10 +1486,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1493,13 +1500,13 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1510,10 +1517,10 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1529,8 +1536,8 @@
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1546,14 +1553,11 @@
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
+      <c r="C13" t="s">
+        <v>29</v>
       </c>
       <c r="D13">
         <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1564,16 +1568,16 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1586,11 +1590,14 @@
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D15">
         <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1601,13 +1608,13 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1618,13 +1625,16 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1637,60 +1647,57 @@
       <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
       <c r="F18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20">
         <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1698,16 +1705,16 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1792,13 +1799,16 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1809,16 +1819,13 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1831,14 +1838,14 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
+      <c r="C28" t="s">
+        <v>38</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1849,22 +1856,19 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F29">
         <v>1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1872,19 +1876,22 @@
         <v>26</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30">
         <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1892,13 +1899,16 @@
         <v>27</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1912,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1920,11 +1930,8 @@
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1932,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1940,50 +1947,53 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
-        <v>47</v>
+      <c r="C35" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1992,49 +2002,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
       <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
-      <c r="C38" t="s">
-        <v>51</v>
+      <c r="C38" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>53</v>
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2043,15 +2053,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>57</v>
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2060,15 +2070,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2077,15 +2087,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2094,15 +2104,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39</v>
       </c>
       <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2111,15 +2121,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>58</v>
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2128,15 +2138,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2145,57 +2155,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>42</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>64</v>
+      <c r="C47" t="s">
+        <v>13</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
+      <c r="E47" t="s">
+        <v>55</v>
+      </c>
       <c r="F47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="F48">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="F49">
         <v>1</v>
       </c>
     </row>
@@ -2658,7 +2685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049CD3FE-F869-4CEE-A69D-89319946C4AD}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CBCBBC-C7E8-43F7-A232-2D1B1FF06B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7409A56-D047-4A31-8E5E-9D9E6286AC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog0" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="88">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,6 +452,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>看到人脸了吗？</t>
+  </si>
+  <si>
+    <t>上个月他媳妇往娘家运年猪，车厢板就是这么给压塌的...</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -460,7 +466,120 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>（压低声音）王大福那破货车突突响得跟犯痨病似的，还有个尖嗓子喊</t>
+      <t>（拍大腿）黑灯瞎火的！不过那声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你要不吃那么胖我就能开稳了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绝对是大福的口头禅！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#wait 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#wait 0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tip 获得线索，又是王大福，还有另外的人?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好平静，似乎没有人在家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去别的地方看看吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这是走到哪来了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>还是去其他地方看看吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没人在家…...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（压低声音）王大福那破货车突突响得跟犯痨病似的，还有个尖嗓子喊:</t>
     </r>
     <r>
       <rPr>
@@ -490,121 +609,6 @@
       </rPr>
       <t>"</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看到人脸了吗？</t>
-  </si>
-  <si>
-    <t>上个月他媳妇往娘家运年猪，车厢板就是这么给压塌的...</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（拍大腿）黑灯瞎火的！不过那声</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你要不吃那么胖我就能开稳了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>绝对是大福的口头禅！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#wait 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R,-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R,-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#wait 0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S,0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#tip 获得线索，又是王大福，还有另外的人?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好平静，似乎没有人在家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去别的地方看看吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>这是走到哪来了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>还是去其他地方看看吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没人在家…...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1332,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FE645-8355-4966-BC3F-7DFF5D3538F9}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1597,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1671,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1734,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1748,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1785,7 +1789,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1922,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1959,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2236,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965FBCB6-0369-4743-93F2-A369BDC4318D}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2306,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2357,7 +2361,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2380,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -2394,7 +2398,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2417,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -2431,7 +2435,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2482,7 +2486,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2513,10 +2517,10 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2533,7 +2537,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2550,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2567,7 +2571,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2649,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2666,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2685,7 +2689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049CD3FE-F869-4CEE-A69D-89319946C4AD}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2745,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2762,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2779,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6">
         <v>0</v>

--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7409A56-D047-4A31-8E5E-9D9E6286AC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA89F58-FB7E-471B-B78F-C5545760F0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog0" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Dialog2" sheetId="3" r:id="rId3"/>
     <sheet name="Dialog3" sheetId="4" r:id="rId4"/>
     <sheet name="Dialog4" sheetId="5" r:id="rId5"/>
+    <sheet name="Dialog5" sheetId="6" r:id="rId6"/>
+    <sheet name="Dialog6" sheetId="7" r:id="rId7"/>
+    <sheet name="Dialog7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="137">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +165,459 @@
   </si>
   <si>
     <t>（摇头）</t>
+  </si>
+  <si>
+    <t>王大福你别太过分了！</t>
+  </si>
+  <si>
+    <r>
+      <t>她是我</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>媳妇，不管事的……靠我养着还弄坏我的电动车！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想起来就生气，真是个衰神！</t>
+  </si>
+  <si>
+    <t>sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！</t>
+  </si>
+  <si>
+    <t>……</t>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L,-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L,-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（小声说）这位就是老李，李仲阳，他就住隔壁……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#clearRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xibu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你做个人吧，平常</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天天骂秦晓雯</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就算了，还想要动手打人？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真不是个东西！那校门就是你开电瓶车撞的吧！</t>
+  </si>
+  <si>
+    <t>#tip 获得线索，王大福？撞坏了小学校门？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#next </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tip 获得线索，王大福天天骂秦晓雯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我电瓶车很早就给这娘们撞坏了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！你少在这栽赃啊我警告你，你不知道就少说话！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>得了！那你昨晚上喝酒是飞过来的</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你看看你</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现在心虚的这个样</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，我们多少年了我还不认识你？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一看就是你干的，你还把脏水泼到你老婆身上，真不是个东西！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再吵下去可不成了，你们两个先分开，我后续通知谈话，我们一定会把事情弄清楚的。</t>
+  </si>
+  <si>
+    <t>#tip 王大福在于李仲阳对峙时心虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#wait 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#event1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#event2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#event11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#event12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#event13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少掺和我的事！别在这多管别人的家事！我看你是单身久了眼巴巴别人老婆！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走，去村里看看有没有其他人知道详情吧？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（拄着拐杖咳嗽）哎哟喂...现在的年轻人...追老太婆比赶集抢鸡蛋还狠…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（擦汗动作）婆婆，小学那边到底出什么事了？</t>
+  </si>
+  <si>
+    <t>昨儿半夜两点多，我风湿疼起来贴膏药，就听见...</t>
+  </si>
+  <si>
+    <t>（警惕张望）你瞅见村口那棵歪脖子枣树没？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接着就哐当一声——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到人脸了吗？</t>
+  </si>
+  <si>
+    <t>上个月他媳妇往娘家运年猪，车厢板就是这么给压塌的...</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（拍大腿）黑灯瞎火的！不过那声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你要不吃那么胖我就能开稳了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绝对是大福的口头禅！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#wait 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#wait 0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tip 获得线索，又是王大福，还有另外的人?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好平静，似乎没有人在家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去别的地方看看吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这是走到哪来了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>还是去其他地方看看吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没人在家…...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你去村里了解了多少？”</t>
+  </si>
+  <si>
+    <t>“刚到村子就麻烦你做事，辛苦了。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“我打电话是为了告诉你我们查到了校内监控”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“模糊的拍到是王大福的电瓶车撞坏了大门。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“开车的是个男人，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后面是一个女人把坏掉的电动车推回了家。”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（挂断电话）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“好的，谢谢！我了解了。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tip 昨晚开车的人是个男人！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#wait 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你要准备开始调解了吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>忘记接你了，霜霜说你们从村里了解清楚了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#event51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tip 准备好了吗？点击调解书开始调解吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚上王大福和我喝完酒，刚开始，我记着是秦晓雯骑车要带他。</t>
+  </si>
+  <si>
+    <t>但王大福一开始就不从，非说什么宁愿走路也不要晓雯带。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -188,6 +644,54 @@
       </rPr>
       <t>秦晓雯！叫你不要出来丢人现眼，跑出来干什么！</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>后面肯定是</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嫌弃秦晓雯开的不好非要自己来开</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，也不看看自己几分酒量！喝了那么多还指望能开的稳车？</t>
+    </r>
+  </si>
+  <si>
+    <t>#tip 王大福嫌弃秦晓雯开的不好非要自己来开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>怎么可能是我</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <i/>
@@ -198,15 +702,124 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（</t>
-    </r>
-  </si>
-  <si>
-    <t>王大福你别太过分了！</t>
-  </si>
-  <si>
-    <r>
-      <t>她是我</t>
+      <t>心虚</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>#tip 秦晓雯晚上骑车看不清路况，才不小心撞到了铁门。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>就是秦晓雯！就是</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>她晚上骑车看不见瞎骑 。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你这个新来的调解员不要被李仲阳骗了去！</t>
+  </si>
+  <si>
+    <t>分明就是李仲阳故意陷害我！</t>
+  </si>
+  <si>
+    <t>他自己胆小摔了个屁股蹲还有脸向我要赔礼道歉，哪有这种人！</t>
+  </si>
+  <si>
+    <t>我之前真是瞎了眼请他喝酒！</t>
+  </si>
+  <si>
+    <t>胡说！明明酒钱也是我付的！不仅酒喝不了几两，脑子都不清醒了！</t>
+  </si>
+  <si>
+    <t>谁不清醒，大白天的杵那站着都能给自己摔残了！</t>
+  </si>
+  <si>
+    <t>你！你得给我道歉！</t>
+  </si>
+  <si>
+    <t>我就不道歉怎么了？</t>
+  </si>
+  <si>
+    <r>
+      <t>我身体好得很！</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF5B9BD5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老子就是喝酒都能开车……</t>
+    </r>
+  </si>
+  <si>
+    <t>#tip 王大福自称能够酒后驾车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！</t>
+  </si>
+  <si>
+    <r>
+      <t>王叔叔，你喝酒也能开车</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我，就是说说……</t>
+  </si>
+  <si>
+    <r>
+      <t>就是说说</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
     </r>
     <r>
       <rPr>
@@ -217,245 +830,29 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>媳妇，不管事的……靠我养着还弄坏我的电动车！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想起来就生气，真是个衰神！</t>
-  </si>
-  <si>
-    <t>sound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！</t>
-  </si>
-  <si>
-    <t>……</t>
-  </si>
-  <si>
-    <t>move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L,-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L,-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（小声说）这位就是老李，李仲阳，他就住隔壁……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#clearRole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xibu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R,-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你做个人吧，平常</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天天骂秦晓雯</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>就算了，还想要动手打人？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真不是个东西！那校门就是你开电瓶车撞的吧！</t>
-  </si>
-  <si>
-    <t>#tip 获得线索，王大福？撞坏了小学校门？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">#next </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#tip 获得线索，王大福天天骂秦晓雯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我电瓶车很早就给这娘们撞坏了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！你少在这栽赃啊我警告你，你不知道就少说话！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>得了！那你昨晚上喝酒是飞过来的</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你看看你</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>现在心虚的这个样</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，我们多少年了我还不认识你？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一看就是你干的，你还把脏水泼到你老婆身上，真不是个东西！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S,1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再吵下去可不成了，你们两个先分开，我后续通知谈话，我们一定会把事情弄清楚的。</t>
-  </si>
-  <si>
-    <t>#tip 王大福在于李仲阳对峙时心虚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#wait 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#event1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#event2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#event11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#event12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#event13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少掺和我的事！别在这多管别人的家事！我看你是单身久了眼巴巴别人老婆！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走，去村里看看有没有其他人知道详情吧？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（拄着拐杖咳嗽）哎哟喂...现在的年轻人...追老太婆比赶集抢鸡蛋还狠…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（擦汗动作）婆婆，小学那边到底出什么事了？</t>
-  </si>
-  <si>
-    <t>昨儿半夜两点多，我风湿疼起来贴膏药，就听见...</t>
-  </si>
-  <si>
-    <t>（警惕张望）你瞅见村口那棵歪脖子枣树没？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接着就哐当一声——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看到人脸了吗？</t>
-  </si>
-  <si>
-    <t>上个月他媳妇往娘家运年猪，车厢板就是这么给压塌的...</t>
+      <t>可我手里有监控证明你昨晚确实开了车。</t>
+    </r>
+  </si>
+  <si>
+    <t>什么？你们耍我呢？！新来的你血口喷人，村头监控坏了多久了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你认为是我就是我？我不服！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#event61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老李的证词说明在回家的时候老王喝多了酒，秦晓雯因为开车太慢被老王嫌弃。</t>
+  </si>
+  <si>
+    <t>于是醉酒的老王自己开车，醉驾撞坏了春风小学的大门。</t>
+  </si>
+  <si>
+    <t>秦晓雯将坏掉的电动车推回家的路上老王说秦晓雯坐在车上妨碍他开车，被周婆婆听到。</t>
   </si>
   <si>
     <r>
@@ -466,16 +863,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>（拍大腿）黑灯瞎火的！不过那声</t>
+      <t>（压低声音）王大福那破</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t>"</t>
+      <t>电动</t>
     </r>
     <r>
       <rPr>
@@ -485,101 +883,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>你要不吃那么胖我就能开稳了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>绝对是大福的口头禅！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#wait 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R,-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R,-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#wait 0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S,0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#tip 获得线索，又是王大福，还有另外的人?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好平静，似乎没有人在家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去别的地方看看吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>这是走到哪来了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>还是去其他地方看看吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没人在家…...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（压低声音）王大福那破货车突突响得跟犯痨病似的，还有个尖嗓子喊:</t>
+      <t>车突突响得跟犯痨病似的，还有个尖嗓子喊:</t>
     </r>
     <r>
       <rPr>
@@ -611,12 +915,39 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>现在监控证据也证明是老王撞的大门，老王还有什么要说的吗？</t>
+  </si>
+  <si>
+    <t>R,-2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,-1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +1035,52 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FF4472C4"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FF5B9BD5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -725,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -736,6 +1113,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1019,7 +1397,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1041,13 +1419,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1087,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1115,10 +1493,10 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1141,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1161,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1189,10 +1567,10 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1206,7 +1584,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -1277,13 +1655,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1294,10 +1672,10 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1314,13 +1692,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1336,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FE645-8355-4966-BC3F-7DFF5D3538F9}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1359,13 +1737,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1405,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1476,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1541,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1558,7 +1936,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1581,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1601,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1615,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1638,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1675,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1689,19 +2067,19 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1712,13 +2090,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1738,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1752,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1775,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1789,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1806,13 +2184,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1823,10 +2201,10 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1843,13 +2221,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
         <v>38</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>39</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1869,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1889,13 +2267,13 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1912,7 +2290,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1923,10 +2301,10 @@
         <v>28</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1940,10 +2318,10 @@
         <v>29</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1952,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1960,10 +2338,10 @@
         <v>30</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1980,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1997,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2011,10 +2389,10 @@
         <v>33</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2031,7 +2409,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2048,7 +2426,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2065,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2079,10 +2457,10 @@
         <v>37</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2099,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2113,10 +2491,10 @@
         <v>39</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2130,7 +2508,7 @@
         <v>40</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
@@ -2147,10 +2525,10 @@
         <v>41</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2164,10 +2542,10 @@
         <v>42</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2190,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2204,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2221,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2240,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965FBCB6-0369-4743-93F2-A369BDC4318D}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2264,13 +2642,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2304,13 +2682,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2324,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2347,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -2361,7 +2739,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2384,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -2398,7 +2776,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2421,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -2435,7 +2813,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2452,7 +2830,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2469,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2486,7 +2864,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2503,7 +2881,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2520,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2537,7 +2915,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2551,10 +2929,10 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2571,7 +2949,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2613,13 +2991,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2653,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2670,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2690,7 +3068,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2709,13 +3087,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2749,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2766,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2783,13 +3161,950 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="F6">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABA4AC3-B858-4BC8-B4DC-370C275B68F0}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="36.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A27BF7-F2A5-419E-A6E5-B06157E264BD}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="49.75" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>-1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44D12F7-13E4-4056-A4FA-1DC7706C17C5}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="40.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA89F58-FB7E-471B-B78F-C5545760F0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C198716-C27E-46E1-91B9-E98D96145861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog0" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Dialog7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="140">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -940,6 +941,18 @@
   </si>
   <si>
     <t>R,-1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈！我就说嘛！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#event71</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1714,13 +1727,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FE645-8355-4966-BC3F-7DFF5D3538F9}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="3" max="3" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2619,7 +2632,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3181,7 +3194,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3469,8 +3482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A27BF7-F2A5-419E-A6E5-B06157E264BD}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="A29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3955,7 +3968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
@@ -4020,10 +4033,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44D12F7-13E4-4056-A4FA-1DC7706C17C5}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4083,28 +4096,128 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C198716-C27E-46E1-91B9-E98D96145861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53E0CD4-AD8C-4611-9E03-B6BAFB58A4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog0" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Dialog7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="146">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -953,6 +952,30 @@
   </si>
   <si>
     <t>#event71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#getTip 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#getTip 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#getTip 51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#getTip 61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#getTip 62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#getTip 11,王大福天天骂秦晓雯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1725,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FE645-8355-4966-BC3F-7DFF5D3538F9}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2404,8 +2427,8 @@
       <c r="B37">
         <v>-1</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>49</v>
+      <c r="C37" t="s">
+        <v>145</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2419,13 +2442,13 @@
         <v>34</v>
       </c>
       <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>51</v>
+        <v>-1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2438,25 +2461,25 @@
       <c r="B39">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
-        <v>50</v>
+      <c r="C39" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2465,15 +2488,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41">
-        <v>-1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2487,10 +2510,10 @@
         <v>38</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2507,7 +2530,7 @@
         <v>-1</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2521,10 +2544,10 @@
         <v>40</v>
       </c>
       <c r="B44">
-        <v>-1</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2541,7 +2564,7 @@
         <v>-1</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2557,8 +2580,8 @@
       <c r="B46">
         <v>-1</v>
       </c>
-      <c r="C46" t="s">
-        <v>62</v>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2572,16 +2595,13 @@
         <v>43</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2592,13 +2612,13 @@
         <v>44</v>
       </c>
       <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>63</v>
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2609,15 +2629,52 @@
         <v>45</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="F49">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="F51">
         <v>1</v>
       </c>
     </row>
@@ -2629,10 +2686,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965FBCB6-0369-4743-93F2-A369BDC4318D}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2937,15 +2994,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18">
         <v>-1</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>78</v>
+      <c r="C18" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2959,15 +3016,32 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
+        <v>-1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
         <v>71</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
     </row>
@@ -3191,10 +3265,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABA4AC3-B858-4BC8-B4DC-370C275B68F0}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3324,7 +3398,7 @@
         <v>-1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3338,10 +3412,10 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>90</v>
+        <v>-1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3355,10 +3429,10 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3375,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3389,10 +3463,10 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3406,16 +3480,13 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D13">
         <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>95</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3426,27 +3497,30 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
       <c r="F14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3455,20 +3529,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
         <v>-1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>0</v>
       </c>
     </row>
@@ -3480,10 +3571,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A27BF7-F2A5-419E-A6E5-B06157E264BD}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="A29:F29"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3583,7 +3674,7 @@
         <v>-1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3597,10 +3688,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>-1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3609,41 +3700,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
         <v>39</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3654,13 +3742,16 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>-1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D10">
         <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3671,16 +3762,13 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3691,13 +3779,13 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>109</v>
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -3711,10 +3799,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13">
         <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -3728,13 +3819,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14">
         <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>131</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -3745,16 +3833,13 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -3768,10 +3853,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -3785,13 +3873,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -3805,13 +3893,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -3822,13 +3907,16 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>-1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -3842,13 +3930,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -3859,16 +3947,13 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>118</v>
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
       </c>
       <c r="D21">
         <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -3882,13 +3967,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -3899,33 +3984,36 @@
         <v>19</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="F23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>134</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -3939,13 +4027,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -3959,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3976,33 +4064,30 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28">
         <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>131</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -4013,15 +4098,55 @@
         <v>25</v>
       </c>
       <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
         <v>-1</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>5</v>
       </c>
     </row>
@@ -4035,13 +4160,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44D12F7-13E4-4056-A4FA-1DC7706C17C5}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="40.75" customWidth="1"/>
+    <col min="3" max="3" width="43.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -4088,11 +4213,6 @@
       </c>
       <c r="G2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F3">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">

--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53E0CD4-AD8C-4611-9E03-B6BAFB58A4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC07C10-1810-47AD-BAFE-3D673A93C342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog0" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="147">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,10 +363,6 @@
     <t>再吵下去可不成了，你们两个先分开，我后续通知谈话，我们一定会把事情弄清楚的。</t>
   </si>
   <si>
-    <t>#tip 王大福在于李仲阳对峙时心虚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#wait 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -672,10 +668,6 @@
       </rPr>
       <t>，也不看看自己几分酒量！喝了那么多还指望能开的稳车？</t>
     </r>
-  </si>
-  <si>
-    <t>#tip 王大福嫌弃秦晓雯开的不好非要自己来开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -955,27 +947,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#getTip 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#getTip 21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#getTip 51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#getTip 61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#getTip 62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#getTip 11,王大福天天骂秦晓雯</t>
+    <t>#tip 王大福在与李仲阳对峙时心虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#getTip 11,王大福天天骂秦晓雯,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#getTip 01,王大福？撞坏了小学校门？,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#getTip 12,王大福在对峙时心虚,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#getTip 21,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周奶奶的证言,1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#getTip 63,王大福自称能够酒后驾车,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#getTip 62,秦晓雯不小心撞到了铁门,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tip 王大福非要自己来开车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#getTip 61,王大福非要自己来开车,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1430,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1532,7 +1548,7 @@
         <v>-1</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1606,7 +1622,7 @@
         <v>-1</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1711,7 +1727,7 @@
         <v>-1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1725,18 +1741,35 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>38</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0</v>
       </c>
     </row>
@@ -1750,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FE645-8355-4966-BC3F-7DFF5D3538F9}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2015,7 +2048,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2089,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2103,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2152,7 +2185,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2166,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -2203,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -2340,7 +2373,7 @@
         <v>-1</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2357,7 +2390,7 @@
         <v>-1</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2377,7 +2410,7 @@
         <v>-1</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2428,7 +2461,7 @@
         <v>-1</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2513,7 +2546,7 @@
         <v>-1</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2530,7 +2563,7 @@
         <v>-1</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2564,7 +2597,7 @@
         <v>-1</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2598,7 +2631,7 @@
         <v>-1</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2615,7 +2648,7 @@
         <v>-1</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2652,7 +2685,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2752,13 +2785,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2772,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2809,7 +2842,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2832,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -2846,7 +2879,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2869,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -2883,7 +2916,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2900,7 +2933,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2917,7 +2950,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2934,7 +2967,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2951,7 +2984,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2968,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2985,7 +3018,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3002,7 +3035,7 @@
         <v>-1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3019,7 +3052,7 @@
         <v>-1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3036,7 +3069,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3118,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3135,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3214,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3231,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3248,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3265,10 +3298,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABA4AC3-B858-4BC8-B4DC-370C275B68F0}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3330,7 +3363,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3347,7 +3380,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3364,7 +3397,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3381,7 +3414,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3398,7 +3431,7 @@
         <v>-1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3412,10 +3445,10 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3429,10 +3462,10 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3449,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3463,10 +3496,10 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3480,13 +3513,16 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>94</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3497,30 +3533,27 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>95</v>
-      </c>
       <c r="F14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3529,37 +3562,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>-1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="F17">
         <v>0</v>
       </c>
     </row>
@@ -3571,10 +3587,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A27BF7-F2A5-419E-A6E5-B06157E264BD}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3637,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3657,7 +3673,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3674,7 +3690,7 @@
         <v>-1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3691,7 +3707,7 @@
         <v>-1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3708,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3725,7 +3741,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -3745,13 +3761,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -3782,7 +3798,7 @@
         <v>-1</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3799,13 +3815,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -3819,7 +3835,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3836,7 +3852,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3853,13 +3869,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -3873,13 +3889,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -3893,7 +3909,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3910,13 +3926,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -3930,13 +3946,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -3949,14 +3965,8 @@
       <c r="B21">
         <v>-1</v>
       </c>
-      <c r="C21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
+      <c r="C21" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3964,16 +3974,13 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>116</v>
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
       </c>
       <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -3984,16 +3991,16 @@
         <v>19</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -4004,16 +4011,16 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -4027,87 +4034,87 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
       </c>
       <c r="F26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>36</v>
-      </c>
       <c r="F27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
       <c r="F28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D29">
         <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>74</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -4121,13 +4128,13 @@
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -4138,15 +4145,35 @@
         <v>27</v>
       </c>
       <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
         <v>-1</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="F31">
+      <c r="C32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>5</v>
       </c>
     </row>
@@ -4223,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4240,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4257,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4274,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4311,13 +4338,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -4331,7 +4358,7 @@
         <v>-1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D10">
         <v>0</v>

--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC07C10-1810-47AD-BAFE-3D673A93C342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87F1BCC-843B-4EE7-9AA6-BB53D27F2EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog0" sheetId="1" r:id="rId1"/>
@@ -3300,7 +3300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABA4AC3-B858-4BC8-B4DC-370C275B68F0}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -3589,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A27BF7-F2A5-419E-A6E5-B06157E264BD}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3967,6 +3967,12 @@
       </c>
       <c r="C21" s="2" t="s">
         <v>143</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">

--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87F1BCC-843B-4EE7-9AA6-BB53D27F2EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DCE1D6-7ABC-4B88-BA3D-607173C19B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1425" windowWidth="21630" windowHeight="12210" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog0" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="148">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -992,6 +992,10 @@
   </si>
   <si>
     <t>#getTip 61,王大福非要自己来开车,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1783,7 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FE645-8355-4966-BC3F-7DFF5D3538F9}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -3301,7 +3305,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3368,6 +3372,9 @@
       <c r="D4">
         <v>0</v>
       </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
       <c r="F4">
         <v>0</v>
       </c>
@@ -3496,13 +3503,16 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D12">
         <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
       </c>
       <c r="F12">
         <v>0</v>

--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DCE1D6-7ABC-4B88-BA3D-607173C19B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D880432-D1C7-4055-B398-0A809A38A92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1425" windowWidth="21630" windowHeight="12210" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="2025" windowWidth="21630" windowHeight="12210" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog0" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="149">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -995,7 +995,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L,5</t>
+    <t>C,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1453,7 +1457,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1595,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1717,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1787,7 +1791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FE645-8355-4966-BC3F-7DFF5D3538F9}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -3305,7 +3309,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3512,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3599,7 +3603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A27BF7-F2A5-419E-A6E5-B06157E264BD}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D880432-D1C7-4055-B398-0A809A38A92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E1FE1F-4E43-4391-9320-55A0AA7647E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="2025" windowWidth="21630" windowHeight="12210" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="2115" windowWidth="21660" windowHeight="12225" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog0" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Dialog5" sheetId="6" r:id="rId6"/>
     <sheet name="Dialog6" sheetId="7" r:id="rId7"/>
     <sheet name="Dialog7" sheetId="8" r:id="rId8"/>
+    <sheet name="Dialog8" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="153">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1000,6 +1001,20 @@
   </si>
   <si>
     <t>F,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派出所向老王开了罚单，并让老王赔偿学校大门的维修费用。</t>
+  </si>
+  <si>
+    <t>老王在我们的调解下向老李道歉，两人和好如初。</t>
+  </si>
+  <si>
+    <t>#event81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…...</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1457,7 +1472,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3308,7 +3323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABA4AC3-B858-4BC8-B4DC-370C275B68F0}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -3601,10 +3616,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A27BF7-F2A5-419E-A6E5-B06157E264BD}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4194,6 +4209,23 @@
         <v>0</v>
       </c>
       <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>5</v>
       </c>
     </row>
@@ -4208,7 +4240,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4391,4 +4423,120 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC916BC-3496-4A71-B802-CE642D5B7199}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E1FE1F-4E43-4391-9320-55A0AA7647E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F8749B-078F-454D-82F9-F5332B50AB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="2115" windowWidth="21660" windowHeight="12225" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog0" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="153">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1014,7 +1014,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>…...</t>
+    <t>......</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3618,7 +3618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A27BF7-F2A5-419E-A6E5-B06157E264BD}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -4237,10 +4237,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44D12F7-13E4-4056-A4FA-1DC7706C17C5}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4416,6 +4416,23 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
     </row>
@@ -4429,8 +4446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC916BC-3496-4A71-B802-CE642D5B7199}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4498,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4515,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4532,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/Excel/DialogList.xlsx
+++ b/Assets/Editor/Excel/DialogList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\QingTang\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F8749B-078F-454D-82F9-F5332B50AB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363A8272-F3E5-4139-81AF-606460C34DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="2115" windowWidth="21660" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog0" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="154">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1015,6 +1015,10 @@
   </si>
   <si>
     <t>......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xibuend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1806,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6FE645-8355-4966-BC3F-7DFF5D3538F9}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2193,6 +2197,9 @@
       <c r="F21">
         <v>1</v>
       </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -2324,6 +2331,9 @@
       <c r="F28">
         <v>1</v>
       </c>
+      <c r="G28" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -2363,9 +2373,6 @@
       </c>
       <c r="F30">
         <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -3618,7 +3625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A27BF7-F2A5-419E-A6E5-B06157E264BD}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -4446,7 +4453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC916BC-3496-4A71-B802-CE642D5B7199}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
